--- a/Mifos Automation Excels/Client/2471-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2471-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-CASH-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -104,9 +99,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -128,20 +120,23 @@
     <t>$ 950</t>
   </si>
   <si>
+    <t>$ 37.75</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>$ 877.12</t>
+  </si>
+  <si>
     <t>$ 839.37</t>
-  </si>
-  <si>
-    <t>$ 37.75</t>
-  </si>
-  <si>
-    <t>$ 877.12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +157,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,27 +187,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -213,7 +201,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -250,8 +237,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -313,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,26 +336,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,23 +371,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,18 +560,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>42064</v>
       </c>
     </row>
@@ -628,192 +584,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>486</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>877.12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>839.37</v>
+      </c>
+      <c r="G2" s="3">
+        <v>37.75</v>
+      </c>
+      <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>4596</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>8261.59</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>203</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>42064</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>9100.9599999999991</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4">
-        <v>877.12</v>
-      </c>
-      <c r="F2" s="4">
-        <v>839.37</v>
-      </c>
-      <c r="G2" s="4">
-        <v>37.75</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E4" s="3">
+        <v>950</v>
+      </c>
+      <c r="F4" s="3">
+        <v>899.04</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50.96</v>
+      </c>
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="7">
-        <v>8261.59</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>4592</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="J4" s="6">
+        <v>4100.96</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>199</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E5" s="5">
         <v>5000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>9100.9599999999991</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>4590</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4">
-        <v>950</v>
-      </c>
-      <c r="F4" s="4">
-        <v>899.04</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50.96</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>4100.96</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4588</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>42005</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="J5" s="5">
         <v>5000</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -842,86 +800,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>154</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>30</v>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -951,114 +909,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>152</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>154</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1087,86 +1045,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>42064</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>154</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>42064</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>30</v>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1178,134 +1136,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>151</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
         <v>42064</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>152</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
         <v>42064</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>154</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>